--- a/maincolorlist.xlsx
+++ b/maincolorlist.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A84"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,203 +431,203 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>29 20 21</t>
+          <t>47 27 52</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>37 34 40</t>
+          <t>35 32 31</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>49 56 60</t>
+          <t>74 74 83</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>31 25 30</t>
+          <t>26 22 162</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23 26 36</t>
+          <t>53 16 38</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>35 30 32</t>
+          <t>71 58 59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>36 32 33</t>
+          <t>71 59 74</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>34 22 28</t>
+          <t>72 68 75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>43 44 53</t>
+          <t>0 0 0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>52 47 52</t>
+          <t>77 68 74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>35 23 19</t>
+          <t>38 21 48</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>37 24 27</t>
+          <t>31 24 27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>41 34 35</t>
+          <t>33 23 170</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>110 135 167</t>
+          <t>43 33 37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>76 70 70</t>
+          <t>102 100 100</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>39 24 18</t>
+          <t>0 0 0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>38 37 45</t>
+          <t>93 93 97</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>61 64 63</t>
+          <t>1 1 1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1 1 2</t>
+          <t>49 38 31</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2 2 3</t>
+          <t>42 36 32</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1 0 1</t>
+          <t>25 15 25</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>25 27 33</t>
+          <t>41 36 28</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>43 37 35</t>
+          <t>83 63 81</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>28 23 24</t>
+          <t>46 37 30</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>39 34 46</t>
+          <t>71 66 71</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>51 42 37</t>
+          <t>55 16 28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27 29 33</t>
+          <t>44 36 43</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3 3 4</t>
+          <t>115 111 118</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>255 255 255</t>
+          <t>51 26 62</t>
         </is>
       </c>
     </row>
@@ -641,371 +641,350 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>255 255 255</t>
+          <t>95 75 82</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>47 42 51</t>
+          <t>55 35 27</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>50 36 45</t>
+          <t>43 36 57</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>36 32 32</t>
+          <t>80 71 76</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>80 80 88</t>
+          <t>73 73 83</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>254 254 255</t>
+          <t>36 31 159</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>32 36 44</t>
+          <t>36 28 33</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1 1 1</t>
+          <t>255 255 255</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1 2 3</t>
+          <t>21 14 115</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30 31 35</t>
+          <t>60 52 78</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>253 253 254</t>
+          <t>43 30 31</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>50 42 44</t>
+          <t>29 17 32</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>23 23 28</t>
+          <t>2 1 1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>44 26 22</t>
+          <t>2 1 1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>46 38 37</t>
+          <t>0 0 0</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>42 26 25</t>
+          <t>74 32 49</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>254 255 255</t>
+          <t>46 25 46</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>68 58 57</t>
+          <t>80 77 86</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>22 16 24</t>
+          <t>45 39 45</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>0 0 0</t>
+          <t>71 57 64</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1 1 2</t>
+          <t>1 1 1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>23 25 30</t>
+          <t>0 0 0</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>254 254 254</t>
+          <t>85 52 69</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>78 71 67</t>
+          <t>44 29 41</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>46 43 50</t>
+          <t>33 23 26</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>31 30 31</t>
+          <t>24 19 142</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>31 27 34</t>
+          <t>43 23 30</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>33 28 31</t>
+          <t>42 24 48</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2 3 4</t>
+          <t>59 34 34</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0 0 0</t>
+          <t>81 65 67</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>39 39 42</t>
+          <t>27 15 35</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>39 39 43</t>
+          <t>76 71 77</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>82 63 66</t>
+          <t>1 1 1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>49 38 32</t>
+          <t>33 17 33</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>35 32 34</t>
+          <t>24 12 126</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>41 40 47</t>
+          <t>0 0 0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>26 20 28</t>
+          <t>45 29 32</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>34 25 22</t>
+          <t>202 105 10</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>86 123 146</t>
+          <t>173 176 178</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>45 34 28</t>
+          <t>35 24 49</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>45 33 40</t>
+          <t>0 0 0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>31 28 42</t>
+          <t>42 22 36</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>28 25 25</t>
+          <t>0 0 0</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>22 24 30</t>
+          <t>43 22 28</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>37 31 35</t>
+          <t>45 30 44</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>47 50 57</t>
+          <t>39 25 53</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>46 43 53</t>
+          <t>115 102 101</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30 28 31</t>
+          <t>55 27 36</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>37 30 30</t>
+          <t>50 23 38</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>28 27 33</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>26 26 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>39 42 44</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>33 36 47</t>
+          <t>27 25 160</t>
         </is>
       </c>
     </row>
